--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="204">
   <si>
     <t>LevelName</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>NanoBomb</t>
-  </si>
-  <si>
-    <t>NanoBomb, MicroBomb (2nd wave)</t>
   </si>
   <si>
     <t>Waves</t>
@@ -1006,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1019,7 +1016,7 @@
     <col min="4" max="4" width="9.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.52734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.17578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.3515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.29296875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.3515625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.9375" style="3"/>
@@ -1036,22 +1033,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
@@ -1065,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -1088,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="9">
         <v>100</v>
@@ -1102,16 +1099,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="9">
         <v>100</v>
@@ -1122,16 +1119,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="9">
         <v>100</v>
@@ -1142,19 +1139,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="9">
         <v>110</v>
@@ -1165,16 +1162,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="9">
         <v>110</v>
@@ -1185,19 +1182,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="9">
         <v>110</v>
@@ -1208,16 +1205,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="9">
         <v>120</v>
@@ -1228,16 +1225,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="9">
         <v>120</v>
@@ -1248,19 +1245,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="9">
         <v>500</v>
@@ -1271,16 +1268,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H12" s="9">
         <v>130</v>
@@ -1291,16 +1288,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="9">
         <v>130</v>
@@ -1311,16 +1308,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="9">
         <v>130</v>
@@ -1331,19 +1328,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="9">
         <v>130</v>
@@ -1354,16 +1351,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="9">
         <v>140</v>
@@ -1374,16 +1371,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="9">
         <v>140</v>
@@ -1394,16 +1391,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="9">
         <v>140</v>
@@ -1414,16 +1411,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="9">
         <v>140</v>
@@ -1434,16 +1431,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="9">
         <v>140</v>
@@ -1454,22 +1451,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="9">
         <v>500</v>
@@ -1480,16 +1477,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="9">
         <v>150</v>
@@ -1500,16 +1497,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H23" s="9">
         <v>150</v>
@@ -1520,16 +1517,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H24" s="9">
         <v>150</v>
@@ -1540,16 +1537,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" s="9">
         <v>150</v>
@@ -1560,19 +1557,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="9">
         <v>700</v>
@@ -1583,13 +1580,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="9">
         <v>120</v>
@@ -1600,10 +1597,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="9">
         <v>120</v>
@@ -1614,10 +1611,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H29" s="9">
         <v>120</v>
@@ -1628,10 +1625,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="9">
         <v>120</v>
@@ -1642,10 +1639,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="9">
         <v>120</v>
@@ -1656,13 +1653,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="9">
         <v>120</v>
@@ -1673,10 +1670,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="9">
         <v>130</v>
@@ -1687,10 +1684,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="9">
         <v>130</v>
@@ -1701,13 +1698,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="9">
         <v>130</v>
@@ -1718,13 +1715,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="9">
         <v>500</v>
@@ -1735,13 +1732,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="9">
         <v>150</v>
@@ -1752,10 +1749,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="9">
         <v>150</v>
@@ -1766,10 +1763,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="9">
         <v>150</v>
@@ -1780,10 +1777,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="9">
         <v>160</v>
@@ -1794,13 +1791,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41" s="9">
         <v>600</v>
@@ -1811,13 +1808,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="9">
         <v>160</v>
@@ -1828,10 +1825,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="9">
         <v>170</v>
@@ -1842,10 +1839,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="9">
         <v>170</v>
@@ -1856,10 +1853,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="9">
         <v>170</v>
@@ -1870,13 +1867,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H46" s="9">
         <v>700</v>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" s="9">
         <v>180</v>
@@ -1901,10 +1898,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H48" s="9">
         <v>180</v>
@@ -1915,10 +1912,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="9">
         <v>180</v>
@@ -1929,10 +1926,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="9">
         <v>180</v>
@@ -1943,13 +1940,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" s="9">
         <v>800</v>
@@ -1960,10 +1957,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="9">
         <v>200</v>
@@ -1974,10 +1971,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="9">
         <v>200</v>
@@ -1988,10 +1985,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H54" s="9">
         <v>225</v>
@@ -2002,10 +1999,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H55" s="9">
         <v>225</v>
@@ -2016,13 +2013,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H56" s="9">
         <v>1000</v>
@@ -2033,10 +2030,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57" s="9">
         <v>250</v>
@@ -2047,10 +2044,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H58" s="9">
         <v>250</v>
@@ -2061,10 +2058,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H59" s="9">
         <v>275</v>
@@ -2075,10 +2072,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="9">
         <v>275</v>
@@ -2089,10 +2086,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61" s="9">
         <v>275</v>
@@ -2103,10 +2100,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" s="9">
         <v>300</v>
@@ -2117,10 +2114,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63" s="9">
         <v>300</v>
@@ -2131,10 +2128,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H64" s="9">
         <v>325</v>
@@ -2145,10 +2142,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65" s="9">
         <v>325</v>
@@ -2159,13 +2156,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H66" s="9">
         <v>1200</v>
@@ -2176,10 +2173,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" s="9">
         <v>325</v>
@@ -2190,10 +2187,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H68" s="9">
         <v>325</v>
@@ -2204,16 +2201,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>7</v>
@@ -2227,16 +2224,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H70" s="9">
         <v>350</v>
@@ -2247,16 +2244,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H71" s="9">
         <v>1000</v>
@@ -2267,13 +2264,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H72" s="9">
         <v>450</v>
@@ -2284,13 +2281,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H73" s="9">
         <v>450</v>
@@ -2301,13 +2298,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H74" s="9">
         <v>450</v>
@@ -2318,13 +2315,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H75" s="9">
         <v>450</v>
@@ -2335,16 +2332,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H76" s="9">
         <v>1300</v>
@@ -2355,13 +2352,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H77" s="9">
         <v>450</v>
@@ -2372,13 +2369,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H78" s="9">
         <v>450</v>
@@ -2389,13 +2386,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H79" s="9">
         <v>450</v>
@@ -2406,13 +2403,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H80" s="9">
         <v>450</v>
@@ -2423,16 +2420,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H81" s="9">
         <v>1800</v>
@@ -2443,13 +2440,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H82" s="9">
         <v>500</v>
@@ -2460,13 +2457,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H83" s="9">
         <v>500</v>
@@ -2477,13 +2474,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H84" s="9">
         <v>500</v>
@@ -2494,13 +2491,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H85" s="9">
         <v>500</v>
@@ -2511,13 +2508,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H86" s="9">
         <v>500</v>
@@ -2528,13 +2525,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H87" s="9">
         <v>500</v>
@@ -2545,13 +2542,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H88" s="9">
         <v>500</v>
@@ -2562,13 +2559,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H89" s="9">
         <v>500</v>
@@ -2579,13 +2576,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H90" s="9">
         <v>500</v>
@@ -2596,16 +2593,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H91" s="9">
         <v>1500</v>
@@ -2616,13 +2613,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H92" s="9">
         <v>550</v>
@@ -2633,13 +2630,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H93" s="9">
         <v>550</v>
@@ -2650,13 +2647,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H94" s="9">
         <v>550</v>
@@ -2667,13 +2664,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H95" s="9">
         <v>550</v>
@@ -2684,16 +2681,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H96" s="9">
         <v>2000</v>
@@ -2704,13 +2701,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H97" s="9">
         <v>600</v>
@@ -2721,13 +2718,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H98" s="9">
         <v>600</v>
@@ -2738,13 +2735,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H99" s="9">
         <v>600</v>
@@ -2755,13 +2752,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H100" s="9">
         <v>600</v>
@@ -2772,16 +2769,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H101" s="9">
         <v>2500</v>
@@ -2792,19 +2789,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H102" s="9">
         <v>10</v>
@@ -2815,19 +2812,19 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H104" s="9">
         <f>AVERAGE(H2:H102)</f>
@@ -2840,30 +2837,30 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -1004,8 +1004,8 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
   <si>
     <t>LevelName</t>
   </si>
@@ -510,9 +510,6 @@
     <t>NanoBomb,MicroBomb,KiloBomb</t>
   </si>
   <si>
-    <t>UltimateBasic?</t>
-  </si>
-  <si>
     <t>MicroBomb, Shifter, Zipper, Teleporter</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>Vessel, nanoshield</t>
   </si>
   <si>
-    <t>Booster, nanobasic, microshield, kilobasic, microbasic, reflector, outlier</t>
-  </si>
-  <si>
     <t>Mesooutlier, mesoenigma, mesoshifter, ticker, kilobasic, nanoarmored</t>
   </si>
   <si>
@@ -579,9 +573,6 @@
     <t>3,5,7</t>
   </si>
   <si>
-    <t>2,3,7,8</t>
-  </si>
-  <si>
     <t>6,8</t>
   </si>
   <si>
@@ -628,6 +619,21 @@
   </si>
   <si>
     <t>9,10</t>
+  </si>
+  <si>
+    <t>Gigabasic</t>
+  </si>
+  <si>
+    <t>2,4,10,11</t>
+  </si>
+  <si>
+    <t>8,9,10</t>
+  </si>
+  <si>
+    <t>7,9</t>
+  </si>
+  <si>
+    <t>Booster, nanobasic, microshield, kilobasic, microbasic, shifter, mesoshifter, zipper</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1054,8 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1133,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
@@ -1156,7 +1162,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
@@ -1179,7 +1185,7 @@
         <v>117</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
@@ -1227,7 +1233,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
@@ -1252,11 +1258,11 @@
         <v>117</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H8" s="15">
         <v>110</v>
@@ -1275,11 +1281,11 @@
         <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="15">
         <v>120</v>
@@ -1298,11 +1304,11 @@
         <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="15">
         <v>120</v>
@@ -1321,13 +1327,13 @@
         <v>120</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="15">
         <v>500</v>
@@ -1346,11 +1352,11 @@
         <v>117</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="15">
         <v>130</v>
@@ -1369,11 +1375,11 @@
         <v>119</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="15">
         <v>130</v>
@@ -1392,11 +1398,11 @@
         <v>119</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="15">
         <v>130</v>
@@ -1417,11 +1423,11 @@
         <v>119</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="15">
         <v>130</v>
@@ -1440,11 +1446,11 @@
         <v>117</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="15">
         <v>140</v>
@@ -1463,11 +1469,11 @@
         <v>119</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17" s="15">
         <v>140</v>
@@ -1486,11 +1492,11 @@
         <v>117</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="15">
         <v>140</v>
@@ -1509,17 +1515,17 @@
         <v>118</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="H19" s="15">
         <v>140</v>
       </c>
       <c r="I19" s="15">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
@@ -1532,11 +1538,11 @@
         <v>120</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H20" s="15">
         <v>140</v>
@@ -1557,13 +1563,13 @@
         <v>117</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" s="15">
         <v>500</v>
@@ -1582,11 +1588,11 @@
         <v>119</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="15">
         <v>150</v>
@@ -1605,11 +1611,11 @@
         <v>119</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H23" s="15">
         <v>150</v>
@@ -1628,11 +1634,11 @@
         <v>117</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H24" s="15">
         <v>150</v>
@@ -1651,11 +1657,11 @@
         <v>120</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H25" s="15">
         <v>150</v>
@@ -1674,13 +1680,13 @@
         <v>121</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="15">
         <v>700</v>
@@ -1877,7 +1883,7 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19">
@@ -3267,7 +3273,7 @@
       </c>
       <c r="I104" s="9">
         <f>AVERAGE(I2:I102)</f>
-        <v>100.14851485148515</v>
+        <v>100.34653465346534</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -552,9 +552,6 @@
     <t>basic up to kil, armored up to kilo, shield up to micro, vessel, ticker, outlier</t>
   </si>
   <si>
-    <t>kilshield,  kiloarmored, protector</t>
-  </si>
-  <si>
     <t>disruptor, megabasic, gigabasic, ultimatebasic</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>Booster, nanobasic, microshield, kilobasic, microbasic, shifter, mesoshifter, zipper</t>
+  </si>
+  <si>
+    <t>kiloshield,  kiloarmored, protector</t>
   </si>
 </sst>
 </file>
@@ -1053,9 +1053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
@@ -1162,7 +1162,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
@@ -1185,7 +1185,7 @@
         <v>117</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
@@ -1233,7 +1233,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
@@ -1258,11 +1258,11 @@
         <v>117</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="15">
         <v>110</v>
@@ -1281,7 +1281,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
@@ -1304,7 +1304,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14" t="s">
@@ -1327,10 +1327,10 @@
         <v>120</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>166</v>
@@ -1352,7 +1352,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
@@ -1375,7 +1375,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="14" t="s">
@@ -1398,7 +1398,7 @@
         <v>119</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
@@ -1423,7 +1423,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14" t="s">
@@ -1446,7 +1446,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
@@ -1469,7 +1469,7 @@
         <v>119</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14" t="s">
@@ -1492,7 +1492,7 @@
         <v>117</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14" t="s">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H19" s="15">
         <v>140</v>
@@ -1538,7 +1538,7 @@
         <v>120</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
@@ -1563,7 +1563,7 @@
         <v>117</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>110</v>
@@ -1588,7 +1588,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
@@ -1611,11 +1611,11 @@
         <v>119</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="H23" s="15">
         <v>150</v>
@@ -1634,11 +1634,11 @@
         <v>117</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H24" s="15">
         <v>150</v>
@@ -1657,11 +1657,11 @@
         <v>120</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H25" s="15">
         <v>150</v>
@@ -1680,7 +1680,7 @@
         <v>121</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>109</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19">

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,12 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,9 +750,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,9 +759,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,11 +1056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1067,12 +1072,14 @@
     <col min="5" max="5" width="19.52734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.17578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.3515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.29296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.9375" style="3"/>
+    <col min="8" max="8" width="13.29296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.9375" style="3"/>
+    <col min="11" max="11" width="8.9375" style="20"/>
+    <col min="12" max="16384" width="8.9375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1094,2160 +1101,2186 @@
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="17">
         <v>100</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="12" t="s">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="17">
         <v>100</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="17">
         <v>100</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="12" t="s">
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="17">
         <v>100</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="17">
         <v>110</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="17">
         <v>110</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12" t="s">
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>110</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="17">
         <v>120</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="17">
         <v>120</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="17">
         <v>500</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="17">
         <v>130</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="17">
         <v>130</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="17">
         <v>130</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="17">
         <v>130</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="17">
         <v>140</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="12" t="s">
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="17">
         <v>140</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="17">
         <v>140</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="12" t="s">
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="17">
         <v>140</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="12" t="s">
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="17">
         <v>140</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="12" t="s">
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="17">
         <v>500</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>150</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="12" t="s">
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="17">
         <v>150</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="12" t="s">
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="17">
         <v>150</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="17">
         <v>150</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="12" t="s">
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="17">
         <v>700</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="16" t="s">
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18">
         <v>120</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="18">
         <v>120</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18">
         <v>120</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18">
         <v>120</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19">
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18">
         <v>120</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="18">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19">
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18">
         <v>120</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19">
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18">
         <v>130</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19">
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18">
         <v>130</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19">
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18">
         <v>130</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19">
+      <c r="G36" s="15"/>
+      <c r="H36" s="18">
         <v>500</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19">
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18">
         <v>150</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19">
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18">
         <v>150</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19">
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="18">
         <v>150</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="18">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19">
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="18">
         <v>160</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19">
+      <c r="G41" s="15"/>
+      <c r="H41" s="18">
         <v>600</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19">
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="18">
         <v>160</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19">
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="18">
         <v>170</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19">
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="18">
         <v>170</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19">
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="18">
         <v>170</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="18">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19">
+      <c r="G46" s="15"/>
+      <c r="H46" s="18">
         <v>700</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="18">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19">
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="18">
         <v>180</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="18">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19">
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="18">
         <v>180</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="18">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19">
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="18">
         <v>180</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="18">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19">
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="18">
         <v>180</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19">
+      <c r="G51" s="15"/>
+      <c r="H51" s="18">
         <v>800</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="18">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19">
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="18">
         <v>200</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19">
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="18">
         <v>200</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19">
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18">
         <v>225</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19">
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="18">
         <v>225</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="13"/>
+      <c r="F56" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19">
+      <c r="G56" s="15"/>
+      <c r="H56" s="18">
         <v>1000</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19">
+      <c r="E57" s="13"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="18">
         <v>250</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="18">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19">
+      <c r="E58" s="13"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="18">
         <v>250</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="18">
         <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19">
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="18">
         <v>275</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="18">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19">
+      <c r="E60" s="13"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="18">
         <v>275</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="18">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19">
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="18">
         <v>275</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19">
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="18">
         <v>300</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19">
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="18">
         <v>300</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="18">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19">
+      <c r="E64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="18">
         <v>325</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="18">
         <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="19">
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="18">
         <v>325</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="18">
         <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16" t="s">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19">
+      <c r="G66" s="15"/>
+      <c r="H66" s="18">
         <v>1200</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19">
+      <c r="E67" s="13"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="18">
         <v>325</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I67" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16" t="s">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19">
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="18">
         <v>325</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="18">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18" t="s">
+      <c r="E69" s="13"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="18">
         <v>350</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="18">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="19">
+      <c r="E70" s="13"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="18">
         <v>350</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17" t="s">
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H71" s="18">
         <v>1000</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="18">
         <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16" t="s">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18" t="s">
+      <c r="E72" s="13"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="19">
+      <c r="H72" s="18">
         <v>450</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="18">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18" t="s">
+      <c r="E73" s="13"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H73" s="18">
         <v>450</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="18">
         <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="18" t="s">
+      <c r="E74" s="13"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="18">
         <v>450</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="18">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="18" t="s">
+      <c r="E75" s="13"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H75" s="18">
         <v>450</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I75" s="18">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="17" t="s">
+      <c r="E76" s="13"/>
+      <c r="F76" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H76" s="19">
+      <c r="H76" s="18">
         <v>1300</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="18">
         <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18" t="s">
+      <c r="E77" s="13"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H77" s="18">
         <v>450</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I77" s="18">
         <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="18" t="s">
+      <c r="E78" s="13"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="18">
         <v>450</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="18">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18" t="s">
+      <c r="E79" s="13"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="18">
         <v>450</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I79" s="18">
         <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18" t="s">
+      <c r="E80" s="13"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H80" s="19">
+      <c r="H80" s="18">
         <v>450</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="18">
         <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="16"/>
-      <c r="F81" s="17" t="s">
+      <c r="E81" s="13"/>
+      <c r="F81" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H81" s="18">
         <v>1800</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="18">
         <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="16"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="18" t="s">
+      <c r="E82" s="13"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H82" s="19">
+      <c r="H82" s="18">
         <v>500</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="18">
         <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16" t="s">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="18" t="s">
+      <c r="E83" s="13"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="18">
         <v>500</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="18">
         <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="18" t="s">
+      <c r="E84" s="13"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H84" s="19">
+      <c r="H84" s="18">
         <v>500</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I84" s="18">
         <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="18" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="18">
         <v>500</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="18">
         <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16" t="s">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18" t="s">
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="18">
         <v>500</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="18">
         <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16" t="s">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="18" t="s">
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H87" s="18">
         <v>500</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="18">
         <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16" t="s">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="18" t="s">
+      <c r="E88" s="13"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H88" s="19">
+      <c r="H88" s="18">
         <v>500</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="18">
         <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="18" t="s">
+      <c r="E89" s="13"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="18">
         <v>500</v>
       </c>
-      <c r="I89" s="19">
+      <c r="I89" s="18">
         <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16" t="s">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18" t="s">
+      <c r="E90" s="13"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="18">
         <v>500</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="18">
         <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="17" t="s">
+      <c r="E91" s="13"/>
+      <c r="F91" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="18">
         <v>1500</v>
       </c>
-      <c r="I91" s="19">
+      <c r="I91" s="18">
         <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16" t="s">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="18" t="s">
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="18">
         <v>550</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I92" s="18">
         <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16" t="s">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="16"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="18" t="s">
+      <c r="E93" s="13"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="18">
         <v>550</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="18">
         <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16" t="s">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="18" t="s">
+      <c r="E94" s="13"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="18">
         <v>550</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="18">
         <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16" t="s">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E95" s="16"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="18" t="s">
+      <c r="E95" s="13"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="18">
         <v>550</v>
       </c>
-      <c r="I95" s="19">
+      <c r="I95" s="18">
         <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16" t="s">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E96" s="16"/>
-      <c r="F96" s="17" t="s">
+      <c r="E96" s="13"/>
+      <c r="F96" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="18">
         <v>2000</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="18">
         <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16" t="s">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="18" t="s">
+      <c r="E97" s="13"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H97" s="19">
+      <c r="H97" s="18">
         <v>600</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I97" s="18">
         <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16" t="s">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18" t="s">
+      <c r="E98" s="13"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="18">
         <v>600</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="18">
         <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="18" t="s">
+      <c r="E99" s="13"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H99" s="19">
+      <c r="H99" s="18">
         <v>600</v>
       </c>
-      <c r="I99" s="19">
+      <c r="I99" s="18">
         <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16" t="s">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18" t="s">
+      <c r="E100" s="13"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H100" s="19">
+      <c r="H100" s="18">
         <v>600</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I100" s="18">
         <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16" t="s">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17" t="s">
+      <c r="E101" s="13"/>
+      <c r="F101" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="G101" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H101" s="19">
+      <c r="H101" s="18">
         <v>2500</v>
       </c>
-      <c r="I101" s="19">
+      <c r="I101" s="18">
         <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16" t="s">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G102" s="18" t="s">
+      <c r="G102" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H102" s="19">
+      <c r="H102" s="18">
         <v>10</v>
       </c>
-      <c r="I102" s="19">
+      <c r="I102" s="18">
         <v>700</v>
       </c>
     </row>
@@ -3267,11 +3300,11 @@
       <c r="G104" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H104" s="9">
+      <c r="H104" s="19">
         <f>AVERAGE(H2:H102)</f>
         <v>395.89108910891088</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="19">
         <f>AVERAGE(I2:I102)</f>
         <v>100.34653465346534</v>
       </c>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
   <si>
     <t>LevelName</t>
   </si>
@@ -609,9 +609,6 @@
     <t>2,6,10,14,16</t>
   </si>
   <si>
-    <t>Mix ultamates/buff/debuff</t>
-  </si>
-  <si>
     <t>NanoBomb, NanoShield, Shifter, KiloBomb, MegaShield</t>
   </si>
   <si>
@@ -634,6 +631,129 @@
   </si>
   <si>
     <t>kiloshield,  kiloarmored, protector</t>
+  </si>
+  <si>
+    <t>14, 18</t>
+  </si>
+  <si>
+    <t>10,12,17</t>
+  </si>
+  <si>
+    <t>13,14,18,19</t>
+  </si>
+  <si>
+    <t>15,16,17,18</t>
+  </si>
+  <si>
+    <t>6,10,20</t>
+  </si>
+  <si>
+    <t>15,22</t>
+  </si>
+  <si>
+    <t>10,15,20</t>
+  </si>
+  <si>
+    <t>17,25</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>10,16,20,24</t>
+  </si>
+  <si>
+    <t>15,17,19</t>
+  </si>
+  <si>
+    <t>20,21,22,23,26</t>
+  </si>
+  <si>
+    <t>15,18,19,20,25</t>
+  </si>
+  <si>
+    <t>7,8,9,10,20</t>
+  </si>
+  <si>
+    <t>10,14,17,19</t>
+  </si>
+  <si>
+    <t>10,15,16,19,24,28</t>
+  </si>
+  <si>
+    <t>3,7,9</t>
+  </si>
+  <si>
+    <t>7,10,11,13,15</t>
+  </si>
+  <si>
+    <t>9,15,19,23</t>
+  </si>
+  <si>
+    <t>15,18,20,22</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>18,19,20.21</t>
+  </si>
+  <si>
+    <t>5,6,14,15,20,21,27,30</t>
+  </si>
+  <si>
+    <t>All armored</t>
+  </si>
+  <si>
+    <t>2,18</t>
+  </si>
+  <si>
+    <t>Mesoshifter, mega basic, macroshifter</t>
+  </si>
+  <si>
+    <t>messoteleporter, mega shield, kilo basic, enigma</t>
+  </si>
+  <si>
+    <t>nano's up to kilo's</t>
+  </si>
+  <si>
+    <t>hyperticker (1st wave), meso ticker, macro ticker, ultimatomb</t>
+  </si>
+  <si>
+    <t>all shields</t>
+  </si>
+  <si>
+    <t>18,19,20,23,27</t>
+  </si>
+  <si>
+    <t>Mix ultamates/buff</t>
+  </si>
+  <si>
+    <t>all buffers, ultimates, megas</t>
+  </si>
+  <si>
+    <t>ultimates, gigas, zippers</t>
+  </si>
+  <si>
+    <t>all basic, armored, shileded; vessel, meso vessel</t>
+  </si>
+  <si>
+    <t>Couplad</t>
+  </si>
+  <si>
+    <t>Minima</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>treat 1 as 4 waves</t>
+  </si>
+  <si>
+    <t>10,11,15,16,25,26,30</t>
   </si>
 </sst>
 </file>
@@ -656,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +792,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,6 +902,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,9 +1198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1276,7 +1416,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="17">
         <v>110</v>
@@ -1320,7 +1460,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
@@ -1344,10 +1484,10 @@
         <v>120</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>166</v>
@@ -1444,7 +1584,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
@@ -1516,7 +1656,7 @@
         <v>117</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
@@ -1544,7 +1684,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="17">
         <v>140</v>
@@ -1644,7 +1784,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H23" s="17">
         <v>150</v>
@@ -1728,597 +1868,707 @@
       </c>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="18">
+      <c r="E27" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="26">
         <v>120</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="26">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="13" t="s">
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="18">
+      <c r="E28" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="26">
         <v>120</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="26">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="13" t="s">
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="18">
+      <c r="E29" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="26">
         <v>120</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="26">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="13" t="s">
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="18">
+      <c r="E30" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="26">
         <v>120</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="13" t="s">
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18">
+      <c r="E31" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26">
         <v>120</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="13" t="s">
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="18">
+      <c r="E32" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="26">
         <v>120</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33" s="13" t="s">
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="18">
+      <c r="E33" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26">
         <v>130</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34" s="13" t="s">
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18">
+      <c r="E34" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26">
         <v>130</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="26">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35" s="13" t="s">
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="18">
+      <c r="E35" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="26">
         <v>130</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="26">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36" s="13" t="s">
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="18">
+      <c r="E36" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="26">
         <v>500</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="26">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37" s="13" t="s">
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="18">
+      <c r="E37" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="26">
         <v>150</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="26">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38" s="13" t="s">
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="18">
+      <c r="E38" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26">
         <v>150</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="26">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A39" s="13" t="s">
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="18">
+      <c r="E39" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26">
         <v>150</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="26">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="13" t="s">
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="18">
+      <c r="E40" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26">
         <v>160</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="26">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="13" t="s">
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="18">
+      <c r="G41" s="25"/>
+      <c r="H41" s="26">
         <v>600</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="26">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42" s="13" t="s">
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="18">
+      <c r="E42" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" s="26">
         <v>160</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="26">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43" s="13" t="s">
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="18">
+      <c r="E43" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26">
         <v>170</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="26">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44" s="13" t="s">
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="18">
+      <c r="E44" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26">
         <v>170</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="26">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45" s="13" t="s">
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="18">
+      <c r="E45" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26">
         <v>170</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="26">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="13" t="s">
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14" t="s">
+      <c r="E46" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="18">
+      <c r="G46" s="25"/>
+      <c r="H46" s="26">
         <v>700</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="26">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A47" s="13" t="s">
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="18">
+      <c r="E47" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26">
         <v>180</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="26">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A48" s="13" t="s">
+      <c r="K47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="18">
+      <c r="E48" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26">
         <v>180</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="26">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A49" s="13" t="s">
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="18">
+      <c r="E49" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26">
         <v>180</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="26">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A50" s="13" t="s">
+      <c r="K49" s="28"/>
+    </row>
+    <row r="50" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26">
+        <v>180</v>
+      </c>
+      <c r="I50" s="26">
+        <v>70</v>
+      </c>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26">
+        <v>800</v>
+      </c>
+      <c r="I51" s="26">
+        <v>75</v>
+      </c>
+      <c r="K51" s="28"/>
+    </row>
+    <row r="52" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="18">
-        <v>180</v>
-      </c>
-      <c r="I50" s="18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A51" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="18">
-        <v>800</v>
-      </c>
-      <c r="I51" s="18">
+      <c r="E52" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26">
+        <v>200</v>
+      </c>
+      <c r="I52" s="26">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="K52" s="28"/>
+    </row>
+    <row r="53" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26">
+        <v>200</v>
+      </c>
+      <c r="I53" s="26">
+        <v>80</v>
+      </c>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="18">
-        <v>200</v>
-      </c>
-      <c r="I52" s="18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="18">
-        <v>200</v>
-      </c>
-      <c r="I53" s="18">
+      <c r="E54" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26">
+        <v>225</v>
+      </c>
+      <c r="I54" s="26">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A54" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="18">
+      <c r="E55" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26">
         <v>225</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="26">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A55" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="18">
-        <v>225</v>
-      </c>
-      <c r="I55" s="18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A56" s="13" t="s">
+      <c r="K55" s="28"/>
+    </row>
+    <row r="56" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="18">
+      <c r="E56" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26">
         <v>1000</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="26">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57" s="13" t="s">
         <v>62</v>
       </c>
@@ -2337,7 +2587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A58" s="13" t="s">
         <v>63</v>
       </c>
@@ -2356,7 +2606,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59" s="13" t="s">
         <v>64</v>
       </c>
@@ -2375,7 +2625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60" s="13" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61" s="13" t="s">
         <v>66</v>
       </c>
@@ -2413,7 +2663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62" s="13" t="s">
         <v>67</v>
       </c>
@@ -2432,7 +2682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63" s="13" t="s">
         <v>68</v>
       </c>
@@ -2451,7 +2701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64" s="13" t="s">
         <v>69</v>
       </c>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
   <si>
     <t>LevelName</t>
   </si>
@@ -363,9 +363,6 @@
     <t>MesoCarrier + Core</t>
   </si>
   <si>
-    <t>NewBoss</t>
-  </si>
-  <si>
     <t>HyperCarrier</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>All basic available</t>
   </si>
   <si>
-    <t>Mix</t>
-  </si>
-  <si>
     <t>NanoBomb, MicroBomb</t>
   </si>
   <si>
@@ -754,6 +748,24 @@
   </si>
   <si>
     <t>10,11,15,16,25,26,30</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>Max Couplad</t>
+  </si>
+  <si>
+    <t>Hyper Carrier &amp; Core</t>
+  </si>
+  <si>
+    <t>2 Couplad types</t>
+  </si>
+  <si>
+    <t>Gigantodon</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1233,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>108</v>
@@ -1242,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="21"/>
@@ -1262,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1288,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1309,14 +1321,14 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="17">
         <v>100</v>
@@ -1333,14 +1345,14 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H5" s="17">
         <v>100</v>
@@ -1356,17 +1368,17 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" s="17">
         <v>110</v>
@@ -1383,14 +1395,14 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="17">
         <v>110</v>
@@ -1406,17 +1418,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="17">
         <v>110</v>
@@ -1433,14 +1445,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H9" s="17">
         <v>120</v>
@@ -1457,14 +1469,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H10" s="17">
         <v>120</v>
@@ -1481,16 +1493,16 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H11" s="17">
         <v>500</v>
@@ -1507,14 +1519,14 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="17">
         <v>130</v>
@@ -1531,14 +1543,14 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13" s="17">
         <v>130</v>
@@ -1555,14 +1567,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H14" s="17">
         <v>130</v>
@@ -1578,17 +1590,17 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H15" s="17">
         <v>130</v>
@@ -1605,14 +1617,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H16" s="17">
         <v>140</v>
@@ -1629,14 +1641,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="17">
         <v>140</v>
@@ -1653,14 +1665,14 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H18" s="17">
         <v>140</v>
@@ -1677,14 +1689,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H19" s="17">
         <v>140</v>
@@ -1701,14 +1713,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="17">
         <v>140</v>
@@ -1724,19 +1736,19 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="17">
         <v>500</v>
@@ -1753,14 +1765,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H22" s="17">
         <v>150</v>
@@ -1777,14 +1789,14 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H23" s="17">
         <v>150</v>
@@ -1801,14 +1813,14 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H24" s="17">
         <v>150</v>
@@ -1825,14 +1837,14 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" s="17">
         <v>150</v>
@@ -1849,16 +1861,16 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H26" s="17">
         <v>700</v>
@@ -1874,17 +1886,17 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H27" s="26">
         <v>120</v>
@@ -1901,14 +1913,14 @@
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H28" s="26">
         <v>120</v>
@@ -1925,14 +1937,14 @@
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H29" s="26">
         <v>120</v>
@@ -1949,14 +1961,14 @@
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H30" s="26">
         <v>120</v>
@@ -1973,10 +1985,10 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
@@ -1994,17 +2006,17 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H32" s="26">
         <v>120</v>
@@ -2021,10 +2033,10 @@
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
@@ -2043,10 +2055,10 @@
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
@@ -2064,17 +2076,17 @@
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H35" s="26">
         <v>130</v>
@@ -2091,16 +2103,16 @@
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="26">
         <v>500</v>
@@ -2116,17 +2128,17 @@
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H37" s="26">
         <v>150</v>
@@ -2143,10 +2155,10 @@
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
@@ -2165,10 +2177,10 @@
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
@@ -2187,10 +2199,10 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
@@ -2209,10 +2221,10 @@
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>111</v>
@@ -2232,17 +2244,17 @@
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H42" s="26">
         <v>160</v>
@@ -2259,10 +2271,10 @@
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
@@ -2281,13 +2293,13 @@
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="26">
@@ -2305,10 +2317,10 @@
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
@@ -2327,10 +2339,10 @@
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>112</v>
@@ -2351,10 +2363,10 @@
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
@@ -2373,10 +2385,10 @@
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
@@ -2395,10 +2407,10 @@
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
@@ -2417,10 +2429,10 @@
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
@@ -2439,10 +2451,10 @@
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>113</v>
@@ -2463,10 +2475,10 @@
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
@@ -2485,10 +2497,10 @@
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
@@ -2507,10 +2519,10 @@
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25"/>
@@ -2529,10 +2541,10 @@
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="25"/>
@@ -2551,13 +2563,13 @@
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26">
@@ -2575,7 +2587,7 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="14"/>
@@ -2594,7 +2606,7 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="14"/>
@@ -2613,7 +2625,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="14"/>
@@ -2632,7 +2644,7 @@
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="14"/>
@@ -2651,7 +2663,7 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="14"/>
@@ -2670,7 +2682,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="14"/>
@@ -2689,7 +2701,7 @@
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
@@ -2708,7 +2720,7 @@
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
@@ -2727,7 +2739,7 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="14"/>
@@ -2746,11 +2758,11 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="14" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="18">
@@ -2767,7 +2779,7 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
@@ -2786,7 +2798,7 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
@@ -2803,13 +2815,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="14"/>
@@ -2828,13 +2840,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="14"/>
@@ -2853,14 +2865,14 @@
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H71" s="18">
         <v>1000</v>
@@ -2876,12 +2888,12 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="14"/>
       <c r="G72" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H72" s="18">
         <v>450</v>
@@ -2897,12 +2909,12 @@
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H73" s="18">
         <v>450</v>
@@ -2918,12 +2930,12 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="14"/>
       <c r="G74" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H74" s="18">
         <v>450</v>
@@ -2939,12 +2951,12 @@
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="14"/>
       <c r="G75" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H75" s="18">
         <v>450</v>
@@ -2960,14 +2972,14 @@
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H76" s="18">
         <v>1300</v>
@@ -2983,12 +2995,12 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="14"/>
       <c r="G77" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H77" s="18">
         <v>450</v>
@@ -3004,12 +3016,12 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="14"/>
       <c r="G78" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H78" s="18">
         <v>450</v>
@@ -3025,12 +3037,12 @@
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H79" s="18">
         <v>450</v>
@@ -3046,12 +3058,12 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H80" s="18">
         <v>450</v>
@@ -3067,14 +3079,14 @@
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="14" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H81" s="18">
         <v>1800</v>
@@ -3090,12 +3102,12 @@
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
       <c r="G82" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H82" s="18">
         <v>500</v>
@@ -3111,12 +3123,12 @@
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
       <c r="G83" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H83" s="18">
         <v>500</v>
@@ -3132,12 +3144,12 @@
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="14"/>
       <c r="G84" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H84" s="18">
         <v>500</v>
@@ -3153,12 +3165,12 @@
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H85" s="18">
         <v>500</v>
@@ -3174,12 +3186,12 @@
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="14"/>
       <c r="G86" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H86" s="18">
         <v>500</v>
@@ -3195,12 +3207,12 @@
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="14"/>
       <c r="G87" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H87" s="18">
         <v>500</v>
@@ -3216,12 +3228,12 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="14"/>
       <c r="G88" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H88" s="18">
         <v>500</v>
@@ -3237,12 +3249,12 @@
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="14"/>
       <c r="G89" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H89" s="18">
         <v>500</v>
@@ -3258,12 +3270,12 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="14"/>
       <c r="G90" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H90" s="18">
         <v>500</v>
@@ -3279,14 +3291,14 @@
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="14" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H91" s="18">
         <v>1500</v>
@@ -3302,12 +3314,12 @@
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H92" s="18">
         <v>550</v>
@@ -3323,12 +3335,12 @@
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H93" s="18">
         <v>550</v>
@@ -3344,12 +3356,12 @@
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="14"/>
       <c r="G94" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H94" s="18">
         <v>550</v>
@@ -3365,12 +3377,12 @@
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="14"/>
       <c r="G95" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H95" s="18">
         <v>550</v>
@@ -3386,14 +3398,14 @@
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="14" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H96" s="18">
         <v>2000</v>
@@ -3409,12 +3421,12 @@
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="14"/>
       <c r="G97" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H97" s="18">
         <v>600</v>
@@ -3430,12 +3442,12 @@
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="14"/>
       <c r="G98" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H98" s="18">
         <v>600</v>
@@ -3451,12 +3463,12 @@
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="14"/>
       <c r="G99" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H99" s="18">
         <v>600</v>
@@ -3472,12 +3484,12 @@
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="14"/>
       <c r="G100" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H100" s="18">
         <v>600</v>
@@ -3493,14 +3505,14 @@
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="14" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H101" s="18">
         <v>2500</v>
@@ -3516,16 +3528,16 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H102" s="18">
         <v>10</v>
@@ -3534,57 +3546,59 @@
         <v>700</v>
       </c>
     </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H103" s="19">
+        <f>AVERAGE(H2:H102)</f>
+        <v>395.89108910891088</v>
+      </c>
+      <c r="I103" s="19">
+        <f>AVERAGE(I2:I102)</f>
+        <v>100.34653465346534</v>
+      </c>
+    </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H104" s="19">
-        <f>AVERAGE(H2:H102)</f>
-        <v>395.89108910891088</v>
-      </c>
-      <c r="I104" s="19">
-        <f>AVERAGE(I2:I102)</f>
-        <v>100.34653465346534</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -1212,7 +1212,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G77" sqref="G77"/>
+      <selection pane="topRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="283">
   <si>
     <t>LevelName</t>
   </si>
@@ -384,36 +384,21 @@
     <t>5</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>Slots/Wave</t>
   </si>
   <si>
-    <t>+2 per wave</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -666,18 +651,6 @@
     <t>20,21,22,23,26</t>
   </si>
   <si>
-    <t>15,18,19,20,25</t>
-  </si>
-  <si>
-    <t>7,8,9,10,20</t>
-  </si>
-  <si>
-    <t>10,14,17,19</t>
-  </si>
-  <si>
-    <t>10,15,16,19,24,28</t>
-  </si>
-  <si>
     <t>3,7,9</t>
   </si>
   <si>
@@ -690,15 +663,9 @@
     <t>15,18,20,22</t>
   </si>
   <si>
-    <t>10,11,12,13,14</t>
-  </si>
-  <si>
     <t>18,19,20.21</t>
   </si>
   <si>
-    <t>5,6,14,15,20,21,27,30</t>
-  </si>
-  <si>
     <t>All armored</t>
   </si>
   <si>
@@ -720,9 +687,6 @@
     <t>all shields</t>
   </si>
   <si>
-    <t>18,19,20,23,27</t>
-  </si>
-  <si>
     <t>Mix ultamates/buff</t>
   </si>
   <si>
@@ -744,12 +708,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>treat 1 as 4 waves</t>
-  </si>
-  <si>
-    <t>10,11,15,16,25,26,30</t>
-  </si>
-  <si>
     <t>Ernesto</t>
   </si>
   <si>
@@ -766,6 +724,150 @@
   </si>
   <si>
     <t>Gigantodon</t>
+  </si>
+  <si>
+    <t>15,16,25,26,30</t>
+  </si>
+  <si>
+    <t>16,24,28</t>
+  </si>
+  <si>
+    <t>18,23,27</t>
+  </si>
+  <si>
+    <t>19,20,25</t>
+  </si>
+  <si>
+    <t>7,8,9,20</t>
+  </si>
+  <si>
+    <t>17,19</t>
+  </si>
+  <si>
+    <t>5,14,20,27,30</t>
+  </si>
+  <si>
+    <t>10,12,14</t>
+  </si>
+  <si>
+    <t>18,19,20</t>
+  </si>
+  <si>
+    <t>15,20,25</t>
+  </si>
+  <si>
+    <t>25,30</t>
+  </si>
+  <si>
+    <t>20,22,24,26</t>
+  </si>
+  <si>
+    <t>25,26,27</t>
+  </si>
+  <si>
+    <t>13,16,19</t>
+  </si>
+  <si>
+    <t>15,19,23</t>
+  </si>
+  <si>
+    <t>25,30,31,32</t>
+  </si>
+  <si>
+    <t>13,15,17</t>
+  </si>
+  <si>
+    <t>8,10,20,22</t>
+  </si>
+  <si>
+    <t>8,10,12</t>
+  </si>
+  <si>
+    <t>15,16,20</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>13,16,17,23</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>8,15,16,27</t>
+  </si>
+  <si>
+    <t>18,19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>8, 23,28</t>
+  </si>
+  <si>
+    <t>13,15,30,35</t>
+  </si>
+  <si>
+    <t>5,10,35</t>
+  </si>
+  <si>
+    <t>4,6,8,10,18</t>
+  </si>
+  <si>
+    <t>10,20,21,22</t>
+  </si>
+  <si>
+    <t>18,25</t>
+  </si>
+  <si>
+    <t>19,26,27</t>
+  </si>
+  <si>
+    <t>18,21</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>16,17,18,19</t>
+  </si>
+  <si>
+    <t>7,19</t>
+  </si>
+  <si>
+    <t>14,16,23,25,30</t>
+  </si>
+  <si>
+    <t>19,20,21,24</t>
+  </si>
+  <si>
+    <t>30,35</t>
+  </si>
+  <si>
+    <t>18, 22,24</t>
+  </si>
+  <si>
+    <t>18,19,25,26</t>
+  </si>
+  <si>
+    <t>21,25,27</t>
+  </si>
+  <si>
+    <t>27,30</t>
+  </si>
+  <si>
+    <t>30,31</t>
+  </si>
+  <si>
+    <t>24,25,28</t>
+  </si>
+  <si>
+    <t>4,10,16,24,30</t>
+  </si>
+  <si>
+    <t>5,10,15,20,25,30</t>
   </si>
 </sst>
 </file>
@@ -1210,9 +1312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1245,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>108</v>
@@ -1254,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="21"/>
@@ -1274,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1300,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1324,11 +1426,11 @@
         <v>116</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H4" s="17">
         <v>100</v>
@@ -1348,11 +1450,11 @@
         <v>116</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H5" s="17">
         <v>100</v>
@@ -1368,17 +1470,17 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H6" s="17">
         <v>110</v>
@@ -1398,11 +1500,11 @@
         <v>118</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H7" s="17">
         <v>110</v>
@@ -1418,17 +1520,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H8" s="17">
         <v>110</v>
@@ -1448,11 +1550,11 @@
         <v>116</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H9" s="17">
         <v>120</v>
@@ -1472,11 +1574,11 @@
         <v>116</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H10" s="17">
         <v>120</v>
@@ -1496,13 +1598,13 @@
         <v>119</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H11" s="17">
         <v>500</v>
@@ -1522,11 +1624,11 @@
         <v>116</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H12" s="17">
         <v>130</v>
@@ -1546,11 +1648,11 @@
         <v>118</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H13" s="17">
         <v>130</v>
@@ -1570,11 +1672,11 @@
         <v>118</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H14" s="17">
         <v>130</v>
@@ -1590,17 +1692,17 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H15" s="17">
         <v>130</v>
@@ -1620,11 +1722,11 @@
         <v>116</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H16" s="17">
         <v>140</v>
@@ -1644,11 +1746,11 @@
         <v>118</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H17" s="17">
         <v>140</v>
@@ -1668,11 +1770,11 @@
         <v>116</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H18" s="17">
         <v>140</v>
@@ -1692,11 +1794,11 @@
         <v>117</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H19" s="17">
         <v>140</v>
@@ -1716,11 +1818,11 @@
         <v>119</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H20" s="17">
         <v>140</v>
@@ -1736,19 +1838,19 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H21" s="17">
         <v>500</v>
@@ -1768,11 +1870,11 @@
         <v>118</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H22" s="17">
         <v>150</v>
@@ -1792,11 +1894,11 @@
         <v>118</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H23" s="17">
         <v>150</v>
@@ -1816,11 +1918,11 @@
         <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H24" s="17">
         <v>150</v>
@@ -1840,11 +1942,11 @@
         <v>119</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H25" s="17">
         <v>150</v>
@@ -1864,13 +1966,13 @@
         <v>120</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H26" s="17">
         <v>700</v>
@@ -1886,17 +1988,17 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H27" s="26">
         <v>120</v>
@@ -1916,11 +2018,11 @@
         <v>118</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H28" s="26">
         <v>120</v>
@@ -1940,11 +2042,11 @@
         <v>119</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H29" s="26">
         <v>120</v>
@@ -1964,11 +2066,11 @@
         <v>119</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H30" s="26">
         <v>120</v>
@@ -1988,7 +2090,7 @@
         <v>118</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
@@ -2006,17 +2108,17 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H32" s="26">
         <v>120</v>
@@ -2036,7 +2138,7 @@
         <v>116</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
@@ -2058,7 +2160,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
@@ -2076,17 +2178,17 @@
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H35" s="26">
         <v>130</v>
@@ -2103,16 +2205,16 @@
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H36" s="26">
         <v>500</v>
@@ -2128,17 +2230,17 @@
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H37" s="26">
         <v>150</v>
@@ -2158,7 +2260,7 @@
         <v>118</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
@@ -2180,7 +2282,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
@@ -2202,7 +2304,7 @@
         <v>118</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
@@ -2224,7 +2326,7 @@
         <v>120</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>111</v>
@@ -2244,17 +2346,17 @@
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H42" s="26">
         <v>160</v>
@@ -2271,10 +2373,10 @@
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
@@ -2293,13 +2395,13 @@
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="26">
@@ -2317,10 +2419,10 @@
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
@@ -2339,10 +2441,10 @@
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>112</v>
@@ -2366,7 +2468,7 @@
         <v>118</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
@@ -2388,7 +2490,7 @@
         <v>120</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
@@ -2410,7 +2512,7 @@
         <v>119</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
@@ -2429,10 +2531,10 @@
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23" t="s">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
@@ -2451,10 +2553,10 @@
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>113</v>
@@ -2478,7 +2580,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
@@ -2497,10 +2599,10 @@
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
@@ -2522,7 +2624,7 @@
         <v>119</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25"/>
@@ -2544,7 +2646,7 @@
         <v>119</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="25"/>
@@ -2563,13 +2665,13 @@
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="26">
@@ -2587,9 +2689,11 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="18">
@@ -2606,9 +2710,11 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="18">
@@ -2625,9 +2731,11 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="18">
@@ -2646,7 +2754,9 @@
       <c r="D60" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="18">
@@ -2663,9 +2773,11 @@
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>247</v>
+      </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="18">
@@ -2682,9 +2794,11 @@
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="18">
@@ -2701,9 +2815,11 @@
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="18">
@@ -2720,9 +2836,11 @@
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="18">
@@ -2739,9 +2857,11 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>249</v>
+      </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="18">
@@ -2758,11 +2878,13 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>250</v>
+      </c>
       <c r="F66" s="14" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="18">
@@ -2779,9 +2901,11 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>251</v>
+      </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="18">
@@ -2798,9 +2922,11 @@
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="18">
@@ -2815,15 +2941,17 @@
         <v>74</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="13"/>
+      <c r="E69" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
         <v>7</v>
@@ -2840,15 +2968,17 @@
         <v>75</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="13"/>
+      <c r="E70" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="18">
@@ -2867,12 +2997,14 @@
       <c r="D71" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" s="13" t="s">
+        <v>262</v>
+      </c>
       <c r="F71" s="14" t="s">
         <v>114</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H71" s="18">
         <v>1000</v>
@@ -2888,12 +3020,14 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H72" s="18">
         <v>450</v>
@@ -2909,12 +3043,14 @@
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H73" s="18">
         <v>450</v>
@@ -2930,12 +3066,14 @@
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H74" s="18">
         <v>450</v>
@@ -2953,10 +3091,12 @@
       <c r="D75" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="F75" s="14"/>
       <c r="G75" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H75" s="18">
         <v>450</v>
@@ -2974,12 +3114,14 @@
       <c r="D76" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F76" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H76" s="18">
         <v>1300</v>
@@ -2995,12 +3137,14 @@
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="F77" s="14"/>
       <c r="G77" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H77" s="18">
         <v>450</v>
@@ -3016,12 +3160,14 @@
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="F78" s="14"/>
       <c r="G78" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H78" s="18">
         <v>450</v>
@@ -3037,12 +3183,14 @@
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="F79" s="14"/>
       <c r="G79" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H79" s="18">
         <v>450</v>
@@ -3058,12 +3206,14 @@
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="F80" s="14"/>
       <c r="G80" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H80" s="18">
         <v>450</v>
@@ -3079,14 +3229,16 @@
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="F81" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H81" s="18">
         <v>1800</v>
@@ -3102,12 +3254,14 @@
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>264</v>
+      </c>
       <c r="F82" s="14"/>
       <c r="G82" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H82" s="18">
         <v>500</v>
@@ -3125,10 +3279,12 @@
       <c r="D83" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E83" s="13"/>
+      <c r="E83" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H83" s="18">
         <v>500</v>
@@ -3144,12 +3300,14 @@
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H84" s="18">
         <v>500</v>
@@ -3165,12 +3323,14 @@
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H85" s="18">
         <v>500</v>
@@ -3186,12 +3346,14 @@
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="F86" s="14"/>
       <c r="G86" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H86" s="18">
         <v>500</v>
@@ -3207,12 +3369,14 @@
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="F87" s="14"/>
       <c r="G87" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H87" s="18">
         <v>500</v>
@@ -3228,12 +3392,14 @@
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="F88" s="14"/>
       <c r="G88" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H88" s="18">
         <v>500</v>
@@ -3249,12 +3415,14 @@
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>270</v>
+      </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H89" s="18">
         <v>500</v>
@@ -3270,12 +3438,14 @@
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="F90" s="14"/>
       <c r="G90" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H90" s="18">
         <v>500</v>
@@ -3291,14 +3461,16 @@
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="F91" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H91" s="18">
         <v>1500</v>
@@ -3316,10 +3488,12 @@
       <c r="D92" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H92" s="18">
         <v>550</v>
@@ -3337,10 +3511,12 @@
       <c r="D93" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H93" s="18">
         <v>550</v>
@@ -3358,10 +3534,12 @@
       <c r="D94" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H94" s="18">
         <v>550</v>
@@ -3377,12 +3555,14 @@
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>276</v>
+      </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H95" s="18">
         <v>550</v>
@@ -3398,14 +3578,16 @@
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="F96" s="14" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H96" s="18">
         <v>2000</v>
@@ -3421,12 +3603,14 @@
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E97" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>278</v>
+      </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H97" s="18">
         <v>600</v>
@@ -3442,12 +3626,14 @@
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H98" s="18">
         <v>600</v>
@@ -3463,12 +3649,14 @@
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="F99" s="14"/>
       <c r="G99" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H99" s="18">
         <v>600</v>
@@ -3484,12 +3672,14 @@
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="F100" s="14"/>
       <c r="G100" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H100" s="18">
         <v>600</v>
@@ -3505,14 +3695,16 @@
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>281</v>
+      </c>
       <c r="F101" s="14" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H101" s="18">
         <v>2500</v>
@@ -3528,16 +3720,16 @@
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H102" s="18">
         <v>10</v>
@@ -3558,47 +3750,47 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="317">
   <si>
     <t>LevelName</t>
   </si>
@@ -681,9 +681,6 @@
     <t>nano's up to kilo's</t>
   </si>
   <si>
-    <t>hyperticker (1st wave), meso ticker, macro ticker, ultimatomb</t>
-  </si>
-  <si>
     <t>all shields</t>
   </si>
   <si>
@@ -720,9 +717,6 @@
     <t>Hyper Carrier &amp; Core</t>
   </si>
   <si>
-    <t>2 Couplad types</t>
-  </si>
-  <si>
     <t>Gigantodon</t>
   </si>
   <si>
@@ -868,6 +862,114 @@
   </si>
   <si>
     <t>5,10,15,20,25,30</t>
+  </si>
+  <si>
+    <t>Outlier, MesoOutlier, GigaArmored, Vessel</t>
+  </si>
+  <si>
+    <t>Vessels, Meso Vessels</t>
+  </si>
+  <si>
+    <t>MacroZipper, MesoEngima</t>
+  </si>
+  <si>
+    <t>2hyperticker (1st wave), meso ticker, macro ticker, ultimatomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basics, Kilos, Tickers </t>
+  </si>
+  <si>
+    <t>heavy usage of bomb &amp; laser</t>
+  </si>
+  <si>
+    <t>MesoReflector, MesoEnigma</t>
+  </si>
+  <si>
+    <t>Jammer, Kilos, Enigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All boosters, Vessel, MesoVessel, MacroShifter, </t>
+  </si>
+  <si>
+    <t>Meso Enigma, MacroEngima, Ticker, MesoTicker</t>
+  </si>
+  <si>
+    <t>MacroTickers, MesoOutlier, base/meso/macro Teleporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base/meso/macro zipper, base/meso/macro Reflector, </t>
+  </si>
+  <si>
+    <t>Armory, Armored</t>
+  </si>
+  <si>
+    <t>base/meso/macro ticker, nano &amp; micro's</t>
+  </si>
+  <si>
+    <t>Disruptor, Kilo/Mega/Giga all forms.</t>
+  </si>
+  <si>
+    <t>base/meso outlier &amp; vessel &amp; engima &amp; reflector</t>
+  </si>
+  <si>
+    <t>random for up to meso &amp; mega's</t>
+  </si>
+  <si>
+    <t>Maintainers, Protectors, base/meso/macro tickers, Gigas &amp; Ultimates</t>
+  </si>
+  <si>
+    <t>Havocs, Zippers, Shifters, up to Kilos</t>
+  </si>
+  <si>
+    <t>base/meso engima &amp; reflector &amp; Outlier, All Sheilds/Armored</t>
+  </si>
+  <si>
+    <t>Ultimates, base/meso/macro teleporters</t>
+  </si>
+  <si>
+    <t>disruptor &amp; jammer &amp; base types up to Kilo's</t>
+  </si>
+  <si>
+    <t>meso vessels, shields, MacroTeleporter</t>
+  </si>
+  <si>
+    <t>Couplad, Max Couplad</t>
+  </si>
+  <si>
+    <t>Everything available</t>
+  </si>
+  <si>
+    <t>All basic available, hyp protectors &amp; maintainers &amp; armory</t>
+  </si>
+  <si>
+    <t>Macro &amp; Hyper tickers, Macro &amp; Hyper Outliers,  base/meso/macro shifters</t>
+  </si>
+  <si>
+    <t>Shifters</t>
+  </si>
+  <si>
+    <t>HyperHavocs &amp; ticker</t>
+  </si>
+  <si>
+    <t>carriers</t>
+  </si>
+  <si>
+    <t>All basic available, mesocarriers</t>
+  </si>
+  <si>
+    <t>All basic available, mesocores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cores, </t>
+  </si>
+  <si>
+    <t>All basic available 2 mesocores  &amp; 2 mesocarriers at once.</t>
+  </si>
+  <si>
+    <t>All basic available, HyperBuffers &amp; Debuffers, MacroCore &amp; MacroCarrier at once</t>
+  </si>
+  <si>
+    <t>Ultimates, HyperTicker/Teleporters</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G96" sqref="G96"/>
+      <selection pane="topRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1325,7 +1427,7 @@
     <col min="4" max="4" width="9.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.52734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.17578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.3515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.234375" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.29296875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.3515625" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.9375" style="3"/>
@@ -2093,7 +2195,9 @@
         <v>201</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>281</v>
+      </c>
       <c r="H31" s="26">
         <v>120</v>
       </c>
@@ -2118,7 +2222,7 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="H32" s="26">
         <v>120</v>
@@ -2141,7 +2245,9 @@
         <v>202</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25" t="s">
+        <v>282</v>
+      </c>
       <c r="H33" s="26">
         <v>130</v>
       </c>
@@ -2163,7 +2269,9 @@
         <v>203</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25" t="s">
+        <v>283</v>
+      </c>
       <c r="H34" s="26">
         <v>130</v>
       </c>
@@ -2188,7 +2296,7 @@
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" s="26">
         <v>130</v>
@@ -2208,13 +2316,13 @@
         <v>118</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="H36" s="26">
         <v>500</v>
@@ -2240,7 +2348,7 @@
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H37" s="26">
         <v>150</v>
@@ -2255,7 +2363,9 @@
         <v>43</v>
       </c>
       <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="C38" s="23" t="s">
+        <v>286</v>
+      </c>
       <c r="D38" s="23" t="s">
         <v>118</v>
       </c>
@@ -2263,7 +2373,9 @@
         <v>206</v>
       </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="25" t="s">
+        <v>285</v>
+      </c>
       <c r="H38" s="26">
         <v>150</v>
       </c>
@@ -2285,7 +2397,9 @@
         <v>207</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="25" t="s">
+        <v>287</v>
+      </c>
       <c r="H39" s="26">
         <v>150</v>
       </c>
@@ -2307,7 +2421,9 @@
         <v>208</v>
       </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="25" t="s">
+        <v>288</v>
+      </c>
       <c r="H40" s="26">
         <v>160</v>
       </c>
@@ -2331,7 +2447,9 @@
       <c r="F41" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="25" t="s">
+        <v>289</v>
+      </c>
       <c r="H41" s="26">
         <v>600</v>
       </c>
@@ -2356,7 +2474,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" s="26">
         <v>160</v>
@@ -2376,10 +2494,12 @@
         <v>118</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="G43" s="25" t="s">
+        <v>292</v>
+      </c>
       <c r="H43" s="26">
         <v>170</v>
       </c>
@@ -2398,12 +2518,14 @@
         <v>119</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="25"/>
+        <v>225</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="H44" s="26">
         <v>170</v>
       </c>
@@ -2422,10 +2544,12 @@
         <v>116</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="25" t="s">
+        <v>290</v>
+      </c>
       <c r="H45" s="26">
         <v>170</v>
       </c>
@@ -2444,12 +2568,14 @@
         <v>118</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="25" t="s">
+        <v>293</v>
+      </c>
       <c r="H46" s="26">
         <v>700</v>
       </c>
@@ -2471,7 +2597,9 @@
         <v>210</v>
       </c>
       <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="25" t="s">
+        <v>294</v>
+      </c>
       <c r="H47" s="26">
         <v>180</v>
       </c>
@@ -2493,7 +2621,9 @@
         <v>211</v>
       </c>
       <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="25" t="s">
+        <v>295</v>
+      </c>
       <c r="H48" s="26">
         <v>180</v>
       </c>
@@ -2515,7 +2645,9 @@
         <v>212</v>
       </c>
       <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="G49" s="25" t="s">
+        <v>296</v>
+      </c>
       <c r="H49" s="26">
         <v>180</v>
       </c>
@@ -2534,10 +2666,12 @@
         <v>117</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="G50" s="25" t="s">
+        <v>297</v>
+      </c>
       <c r="H50" s="26">
         <v>180</v>
       </c>
@@ -2556,12 +2690,14 @@
         <v>120</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="25"/>
+      <c r="G51" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="H51" s="26">
         <v>800</v>
       </c>
@@ -2583,7 +2719,9 @@
         <v>213</v>
       </c>
       <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="25" t="s">
+        <v>303</v>
+      </c>
       <c r="H52" s="26">
         <v>200</v>
       </c>
@@ -2602,10 +2740,12 @@
         <v>118</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="25" t="s">
+        <v>301</v>
+      </c>
       <c r="H53" s="26">
         <v>200</v>
       </c>
@@ -2627,7 +2767,9 @@
         <v>200</v>
       </c>
       <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="H54" s="26">
         <v>225</v>
       </c>
@@ -2649,7 +2791,9 @@
         <v>214</v>
       </c>
       <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="25" t="s">
+        <v>299</v>
+      </c>
       <c r="H55" s="26">
         <v>225</v>
       </c>
@@ -2668,12 +2812,14 @@
         <v>120</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="25"/>
+        <v>226</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>298</v>
+      </c>
       <c r="H56" s="26">
         <v>1000</v>
       </c>
@@ -2692,7 +2838,7 @@
         <v>118</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
@@ -2713,7 +2859,7 @@
         <v>118</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
@@ -2734,7 +2880,7 @@
         <v>116</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
@@ -2755,10 +2901,12 @@
         <v>119</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
+      <c r="G60" s="15" t="s">
+        <v>310</v>
+      </c>
       <c r="H60" s="18">
         <v>275</v>
       </c>
@@ -2776,7 +2924,7 @@
         <v>118</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
@@ -2800,7 +2948,9 @@
         <v>122</v>
       </c>
       <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>309</v>
+      </c>
       <c r="H62" s="18">
         <v>300</v>
       </c>
@@ -2818,7 +2968,7 @@
         <v>118</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
@@ -2860,10 +3010,12 @@
         <v>118</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F65" s="14"/>
-      <c r="G65" s="15"/>
+      <c r="G65" s="15" t="s">
+        <v>313</v>
+      </c>
       <c r="H65" s="18">
         <v>325</v>
       </c>
@@ -2881,12 +3033,14 @@
         <v>119</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="H66" s="18">
         <v>1200</v>
       </c>
@@ -2904,7 +3058,7 @@
         <v>118</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
@@ -2925,7 +3079,7 @@
         <v>119</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
@@ -2950,7 +3104,7 @@
         <v>117</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15" t="s">
@@ -2977,10 +3131,12 @@
         <v>118</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
+      <c r="G70" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="H70" s="18">
         <v>350</v>
       </c>
@@ -2998,7 +3154,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>114</v>
@@ -3023,11 +3179,11 @@
         <v>116</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="H72" s="18">
         <v>450</v>
@@ -3046,7 +3202,7 @@
         <v>118</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
@@ -3069,7 +3225,7 @@
         <v>116</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15" t="s">
@@ -3092,7 +3248,7 @@
         <v>119</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="15" t="s">
@@ -3115,7 +3271,7 @@
         <v>118</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>115</v>
@@ -3140,11 +3296,11 @@
         <v>116</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="15" t="s">
-        <v>151</v>
+        <v>308</v>
       </c>
       <c r="H77" s="18">
         <v>450</v>
@@ -3163,7 +3319,7 @@
         <v>119</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="15" t="s">
@@ -3186,7 +3342,7 @@
         <v>116</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="15" t="s">
@@ -3209,7 +3365,7 @@
         <v>117</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="15" t="s">
@@ -3232,10 +3388,10 @@
         <v>118</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>151</v>
@@ -3257,7 +3413,7 @@
         <v>120</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="15" t="s">
@@ -3280,7 +3436,7 @@
         <v>119</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15" t="s">
@@ -3303,11 +3459,11 @@
         <v>116</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="H84" s="18">
         <v>500</v>
@@ -3326,7 +3482,7 @@
         <v>118</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
@@ -3349,7 +3505,7 @@
         <v>116</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="15" t="s">
@@ -3372,7 +3528,7 @@
         <v>116</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="15" t="s">
@@ -3395,12 +3551,10 @@
         <v>116</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F88" s="14"/>
-      <c r="G88" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="G88" s="15"/>
       <c r="H88" s="18">
         <v>500</v>
       </c>
@@ -3418,7 +3572,7 @@
         <v>119</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15" t="s">
@@ -3441,12 +3595,10 @@
         <v>116</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F90" s="14"/>
-      <c r="G90" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="G90" s="15"/>
       <c r="H90" s="18">
         <v>500</v>
       </c>
@@ -3464,10 +3616,10 @@
         <v>120</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>151</v>
@@ -3489,7 +3641,7 @@
         <v>119</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
@@ -3512,7 +3664,7 @@
         <v>116</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
@@ -3535,7 +3687,7 @@
         <v>118</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15" t="s">
@@ -3558,7 +3710,7 @@
         <v>119</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15" t="s">
@@ -3581,13 +3733,13 @@
         <v>118</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="H96" s="18">
         <v>2000</v>
@@ -3606,7 +3758,7 @@
         <v>116</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15" t="s">
@@ -3652,11 +3804,11 @@
         <v>116</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="15" t="s">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="H99" s="18">
         <v>600</v>
@@ -3675,11 +3827,11 @@
         <v>118</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="15" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="H100" s="18">
         <v>600</v>
@@ -3698,13 +3850,13 @@
         <v>120</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="H101" s="18">
         <v>2500</v>
@@ -3723,13 +3875,13 @@
         <v>121</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="H102" s="18">
         <v>10</v>
@@ -3761,8 +3913,8 @@
       <c r="F104" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>151</v>
+      <c r="G104" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
@@ -3778,6 +3930,9 @@
       <c r="F106" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="G106" s="15" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" s="1" t="s">
@@ -3791,6 +3946,9 @@
       </c>
       <c r="F107" s="7" t="s">
         <v>134</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="339">
   <si>
     <t>LevelName</t>
   </si>
@@ -690,9 +690,6 @@
     <t>all buffers, ultimates, megas</t>
   </si>
   <si>
-    <t>ultimates, gigas, zippers</t>
-  </si>
-  <si>
     <t>all basic, armored, shileded; vessel, meso vessel</t>
   </si>
   <si>
@@ -918,9 +915,6 @@
     <t>Maintainers, Protectors, base/meso/macro tickers, Gigas &amp; Ultimates</t>
   </si>
   <si>
-    <t>Havocs, Zippers, Shifters, up to Kilos</t>
-  </si>
-  <si>
     <t>base/meso engima &amp; reflector &amp; Outlier, All Sheilds/Armored</t>
   </si>
   <si>
@@ -945,24 +939,15 @@
     <t>Macro &amp; Hyper tickers, Macro &amp; Hyper Outliers,  base/meso/macro shifters</t>
   </si>
   <si>
-    <t>Shifters</t>
-  </si>
-  <si>
     <t>HyperHavocs &amp; ticker</t>
   </si>
   <si>
-    <t>carriers</t>
-  </si>
-  <si>
     <t>All basic available, mesocarriers</t>
   </si>
   <si>
     <t>All basic available, mesocores</t>
   </si>
   <si>
-    <t xml:space="preserve">cores, </t>
-  </si>
-  <si>
     <t>All basic available 2 mesocores  &amp; 2 mesocarriers at once.</t>
   </si>
   <si>
@@ -970,6 +955,87 @@
   </si>
   <si>
     <t>Ultimates, HyperTicker/Teleporters</t>
+  </si>
+  <si>
+    <t>MacroVessel, MacroTeleporter</t>
+  </si>
+  <si>
+    <t>all shifters</t>
+  </si>
+  <si>
+    <t>reflectors up to macro, gigas</t>
+  </si>
+  <si>
+    <t>maintainer, protector, shields</t>
+  </si>
+  <si>
+    <t>cores, armory, armored</t>
+  </si>
+  <si>
+    <t>carriers, outliers up to macro, zippers up to macro</t>
+  </si>
+  <si>
+    <t>macro tickers, engimas up to macro, booster</t>
+  </si>
+  <si>
+    <t>jammer, vessel up to macro, basic types</t>
+  </si>
+  <si>
+    <t>all basics</t>
+  </si>
+  <si>
+    <t>enigma up to macro, zipper up to macro, only base type</t>
+  </si>
+  <si>
+    <t>disruptor, zippers, shifter (to macro)</t>
+  </si>
+  <si>
+    <t>All basic available, hyp havoc</t>
+  </si>
+  <si>
+    <t>All basic available, hyp protector</t>
+  </si>
+  <si>
+    <t>All basic available, hyp booster</t>
+  </si>
+  <si>
+    <t>All basic available. Hyp maintainer</t>
+  </si>
+  <si>
+    <t>All basic available, hyp armory</t>
+  </si>
+  <si>
+    <t>All basic available, hyp jammer</t>
+  </si>
+  <si>
+    <t>All basic available, hyp disruptor</t>
+  </si>
+  <si>
+    <t>All basic available, hyp disruptor &amp; jammer</t>
+  </si>
+  <si>
+    <t>carrier, core, basic types up to kilo</t>
+  </si>
+  <si>
+    <t>All basic available, all buff/debuff</t>
+  </si>
+  <si>
+    <t>All basic available, hyp protector, armory, maintainer, disruptor</t>
+  </si>
+  <si>
+    <t>All basic available, hyp havoc, booster, jammer</t>
+  </si>
+  <si>
+    <t>All basic available, all the non hyper buffers/debuffer</t>
+  </si>
+  <si>
+    <t>tickers, enigmas</t>
+  </si>
+  <si>
+    <t>ultimates, gigas, base/meso zipper</t>
+  </si>
+  <si>
+    <t>Havocs, Zippers, Shifters - up to macros</t>
   </si>
 </sst>
 </file>
@@ -1414,9 +1480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2196,7 +2262,7 @@
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="26">
         <v>120</v>
@@ -2222,7 +2288,7 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H32" s="26">
         <v>120</v>
@@ -2246,7 +2312,7 @@
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H33" s="26">
         <v>130</v>
@@ -2270,7 +2336,7 @@
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H34" s="26">
         <v>130</v>
@@ -2316,7 +2382,7 @@
         <v>118</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>221</v>
@@ -2348,7 +2414,7 @@
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25" t="s">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="H37" s="26">
         <v>150</v>
@@ -2364,7 +2430,7 @@
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>118</v>
@@ -2374,7 +2440,7 @@
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H38" s="26">
         <v>150</v>
@@ -2398,7 +2464,7 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" s="26">
         <v>150</v>
@@ -2422,7 +2488,7 @@
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H40" s="26">
         <v>160</v>
@@ -2448,7 +2514,7 @@
         <v>111</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H41" s="26">
         <v>600</v>
@@ -2474,7 +2540,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H42" s="26">
         <v>160</v>
@@ -2494,11 +2560,11 @@
         <v>118</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H43" s="26">
         <v>170</v>
@@ -2518,13 +2584,13 @@
         <v>119</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H44" s="26">
         <v>170</v>
@@ -2544,11 +2610,11 @@
         <v>116</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H45" s="26">
         <v>170</v>
@@ -2568,13 +2634,13 @@
         <v>118</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>112</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H46" s="26">
         <v>700</v>
@@ -2598,7 +2664,7 @@
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H47" s="26">
         <v>180</v>
@@ -2622,7 +2688,7 @@
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H48" s="26">
         <v>180</v>
@@ -2646,7 +2712,7 @@
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H49" s="26">
         <v>180</v>
@@ -2666,11 +2732,11 @@
         <v>117</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H50" s="26">
         <v>180</v>
@@ -2690,13 +2756,13 @@
         <v>120</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>113</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H51" s="26">
         <v>800</v>
@@ -2720,7 +2786,7 @@
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H52" s="26">
         <v>200</v>
@@ -2740,11 +2806,11 @@
         <v>118</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H53" s="26">
         <v>200</v>
@@ -2768,7 +2834,7 @@
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H54" s="26">
         <v>225</v>
@@ -2792,7 +2858,7 @@
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="25" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="H55" s="26">
         <v>225</v>
@@ -2812,13 +2878,13 @@
         <v>120</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H56" s="26">
         <v>1000</v>
@@ -2838,10 +2904,12 @@
         <v>118</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="H57" s="18">
         <v>250</v>
       </c>
@@ -2859,10 +2927,12 @@
         <v>118</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="H58" s="18">
         <v>250</v>
       </c>
@@ -2880,10 +2950,12 @@
         <v>116</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
+      <c r="G59" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="H59" s="18">
         <v>275</v>
       </c>
@@ -2901,11 +2973,11 @@
         <v>119</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H60" s="18">
         <v>275</v>
@@ -2924,10 +2996,12 @@
         <v>118</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
+      <c r="G61" s="15" t="s">
+        <v>321</v>
+      </c>
       <c r="H61" s="18">
         <v>275</v>
       </c>
@@ -2949,7 +3023,7 @@
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H62" s="18">
         <v>300</v>
@@ -2968,10 +3042,12 @@
         <v>118</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
+      <c r="G63" s="15" t="s">
+        <v>322</v>
+      </c>
       <c r="H63" s="18">
         <v>300</v>
       </c>
@@ -2992,7 +3068,9 @@
         <v>200</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>314</v>
+      </c>
       <c r="H64" s="18">
         <v>325</v>
       </c>
@@ -3010,11 +3088,11 @@
         <v>118</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H65" s="18">
         <v>325</v>
@@ -3033,13 +3111,13 @@
         <v>119</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H66" s="18">
         <v>1200</v>
@@ -3058,10 +3136,12 @@
         <v>118</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
+      <c r="G67" s="15" t="s">
+        <v>315</v>
+      </c>
       <c r="H67" s="18">
         <v>325</v>
       </c>
@@ -3079,10 +3159,12 @@
         <v>119</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
+      <c r="G68" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="H68" s="18">
         <v>325</v>
       </c>
@@ -3131,11 +3213,11 @@
         <v>118</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H70" s="18">
         <v>350</v>
@@ -3154,7 +3236,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>114</v>
@@ -3179,11 +3261,11 @@
         <v>116</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H72" s="18">
         <v>450</v>
@@ -3202,7 +3284,7 @@
         <v>118</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
@@ -3225,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15" t="s">
@@ -3248,11 +3330,11 @@
         <v>119</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="15" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="H75" s="18">
         <v>450</v>
@@ -3271,7 +3353,7 @@
         <v>118</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>115</v>
@@ -3296,11 +3378,11 @@
         <v>116</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H77" s="18">
         <v>450</v>
@@ -3319,11 +3401,11 @@
         <v>119</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="15" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="H78" s="18">
         <v>450</v>
@@ -3342,11 +3424,11 @@
         <v>116</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="15" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="H79" s="18">
         <v>450</v>
@@ -3365,7 +3447,7 @@
         <v>117</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="15" t="s">
@@ -3388,10 +3470,10 @@
         <v>118</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>151</v>
@@ -3413,11 +3495,11 @@
         <v>120</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="15" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="H82" s="18">
         <v>500</v>
@@ -3436,11 +3518,11 @@
         <v>119</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="H83" s="18">
         <v>500</v>
@@ -3459,11 +3541,11 @@
         <v>116</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H84" s="18">
         <v>500</v>
@@ -3482,11 +3564,11 @@
         <v>118</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="H85" s="18">
         <v>500</v>
@@ -3505,11 +3587,11 @@
         <v>116</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="15" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="H86" s="18">
         <v>500</v>
@@ -3528,11 +3610,11 @@
         <v>116</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="15" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="H87" s="18">
         <v>500</v>
@@ -3551,10 +3633,12 @@
         <v>116</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
+      <c r="G88" s="15" t="s">
+        <v>331</v>
+      </c>
       <c r="H88" s="18">
         <v>500</v>
       </c>
@@ -3572,7 +3656,7 @@
         <v>119</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15" t="s">
@@ -3595,10 +3679,12 @@
         <v>116</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
+      <c r="G90" s="15" t="s">
+        <v>336</v>
+      </c>
       <c r="H90" s="18">
         <v>500</v>
       </c>
@@ -3616,10 +3702,10 @@
         <v>120</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>151</v>
@@ -3641,7 +3727,7 @@
         <v>119</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
@@ -3664,11 +3750,11 @@
         <v>116</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="H93" s="18">
         <v>550</v>
@@ -3687,7 +3773,7 @@
         <v>118</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15" t="s">
@@ -3710,11 +3796,11 @@
         <v>119</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="H95" s="18">
         <v>550</v>
@@ -3733,13 +3819,13 @@
         <v>118</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="H96" s="18">
         <v>2000</v>
@@ -3758,11 +3844,11 @@
         <v>116</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="H97" s="18">
         <v>600</v>
@@ -3785,7 +3871,7 @@
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="H98" s="18">
         <v>600</v>
@@ -3804,11 +3890,11 @@
         <v>116</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H99" s="18">
         <v>600</v>
@@ -3827,11 +3913,11 @@
         <v>118</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H100" s="18">
         <v>600</v>
@@ -3850,13 +3936,13 @@
         <v>120</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H101" s="18">
         <v>2500</v>
@@ -3875,13 +3961,13 @@
         <v>121</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H102" s="18">
         <v>10</v>
@@ -3914,7 +4000,7 @@
         <v>128</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
@@ -3931,7 +4017,7 @@
         <v>133</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
@@ -3948,7 +4034,7 @@
         <v>134</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
+++ b/BombShootDown/Assets/Templates/Levels/LevelDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="350">
   <si>
     <t>LevelName</t>
   </si>
@@ -474,9 +474,6 @@
     <t>NormalClear</t>
   </si>
   <si>
-    <t>All basic available</t>
-  </si>
-  <si>
     <t>NanoBomb, MicroBomb</t>
   </si>
   <si>
@@ -933,24 +930,12 @@
     <t>Everything available</t>
   </si>
   <si>
-    <t>All basic available, hyp protectors &amp; maintainers &amp; armory</t>
-  </si>
-  <si>
     <t>Macro &amp; Hyper tickers, Macro &amp; Hyper Outliers,  base/meso/macro shifters</t>
   </si>
   <si>
     <t>HyperHavocs &amp; ticker</t>
   </si>
   <si>
-    <t>All basic available, mesocarriers</t>
-  </si>
-  <si>
-    <t>All basic available, mesocores</t>
-  </si>
-  <si>
-    <t>All basic available 2 mesocores  &amp; 2 mesocarriers at once.</t>
-  </si>
-  <si>
     <t>All basic available, HyperBuffers &amp; Debuffers, MacroCore &amp; MacroCarrier at once</t>
   </si>
   <si>
@@ -978,9 +963,6 @@
     <t>macro tickers, engimas up to macro, booster</t>
   </si>
   <si>
-    <t>jammer, vessel up to macro, basic types</t>
-  </si>
-  <si>
     <t>all basics</t>
   </si>
   <si>
@@ -990,45 +972,9 @@
     <t>disruptor, zippers, shifter (to macro)</t>
   </si>
   <si>
-    <t>All basic available, hyp havoc</t>
-  </si>
-  <si>
-    <t>All basic available, hyp protector</t>
-  </si>
-  <si>
-    <t>All basic available, hyp booster</t>
-  </si>
-  <si>
-    <t>All basic available. Hyp maintainer</t>
-  </si>
-  <si>
-    <t>All basic available, hyp armory</t>
-  </si>
-  <si>
-    <t>All basic available, hyp jammer</t>
-  </si>
-  <si>
-    <t>All basic available, hyp disruptor</t>
-  </si>
-  <si>
-    <t>All basic available, hyp disruptor &amp; jammer</t>
-  </si>
-  <si>
     <t>carrier, core, basic types up to kilo</t>
   </si>
   <si>
-    <t>All basic available, all buff/debuff</t>
-  </si>
-  <si>
-    <t>All basic available, hyp protector, armory, maintainer, disruptor</t>
-  </si>
-  <si>
-    <t>All basic available, hyp havoc, booster, jammer</t>
-  </si>
-  <si>
-    <t>All basic available, all the non hyper buffers/debuffer</t>
-  </si>
-  <si>
     <t>tickers, enigmas</t>
   </si>
   <si>
@@ -1036,6 +982,93 @@
   </si>
   <si>
     <t>Havocs, Zippers, Shifters - up to macros</t>
+  </si>
+  <si>
+    <t>Hyper zipper, shifter, teleporter, booster</t>
+  </si>
+  <si>
+    <t>mesocarrier, carrier</t>
+  </si>
+  <si>
+    <t>cores only up to macro</t>
+  </si>
+  <si>
+    <t>hyper armory many many of them,  shields, reflectors</t>
+  </si>
+  <si>
+    <t>macro/hyp enigma, vessel, ticker</t>
+  </si>
+  <si>
+    <t>hyp havoc, teleporter, shifter, zipper</t>
+  </si>
+  <si>
+    <t>tickers, vessels, outliers up to macro</t>
+  </si>
+  <si>
+    <t>hyp protector, shields, teleporters</t>
+  </si>
+  <si>
+    <t>hyp boosters, tickers, zippers, shifters</t>
+  </si>
+  <si>
+    <t>outliers, basic 3 types, tickers</t>
+  </si>
+  <si>
+    <t>hyp/base armory, armored, core</t>
+  </si>
+  <si>
+    <t>2 mesocore, basic types</t>
+  </si>
+  <si>
+    <t>hyp jammer, mass basic kilos &amp; megas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyp disruptor, absurd amount of stuff at once - gigas ultimates, vessels (requires nuke and laser prob), </t>
+  </si>
+  <si>
+    <t>hyp disruptor &amp; jammer, vessels</t>
+  </si>
+  <si>
+    <t>basic 3. ultimtaes &amp; gigas spawn near base</t>
+  </si>
+  <si>
+    <t>core, carrier up to meso</t>
+  </si>
+  <si>
+    <t>hyp maintainer, ultimates, maintainer, reflectors</t>
+  </si>
+  <si>
+    <t>megas to ultimates,  hyp protector, armory, maintainer, disruptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zippers, tickers, reflectors, (zippers keep coming down 1 side of the sky), </t>
+  </si>
+  <si>
+    <t>megas ,hyp protectors &amp; maintainers &amp; armory</t>
+  </si>
+  <si>
+    <t>outliers, enigma, reflectors, all the non hyper buffers/debuffer</t>
+  </si>
+  <si>
+    <t>ultimates, vessel, tickers, all buff/debuff</t>
+  </si>
+  <si>
+    <t>2 mesocores  &amp; 2 mesocarriers at once, hyp armory, maintainer, protector, hyp teleporter/engima/vessel, shifter</t>
+  </si>
+  <si>
+    <t>Giga/Mega/Kilo, hyp booster, booster, ticker, outlier</t>
+  </si>
+  <si>
+    <t>protector, maintainer, teleporter, shifter, ticker, enigma</t>
+  </si>
+  <si>
+    <t>jammer, vessel up to macro, armored/shields</t>
+  </si>
+  <si>
+    <t>reflectors</t>
+  </si>
+  <si>
+    <t>basics micro/kilo, hyp havoc, booster, jammer</t>
   </si>
 </sst>
 </file>
@@ -1480,9 +1513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1570,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1594,11 +1627,11 @@
         <v>116</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="17">
         <v>100</v>
@@ -1618,11 +1651,11 @@
         <v>116</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" s="17">
         <v>100</v>
@@ -1648,7 +1681,7 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" s="17">
         <v>110</v>
@@ -1668,11 +1701,11 @@
         <v>118</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="17">
         <v>110</v>
@@ -1694,11 +1727,11 @@
         <v>116</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="17">
         <v>110</v>
@@ -1718,11 +1751,11 @@
         <v>116</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" s="17">
         <v>120</v>
@@ -1742,11 +1775,11 @@
         <v>116</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="17">
         <v>120</v>
@@ -1766,13 +1799,13 @@
         <v>119</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" s="17">
         <v>500</v>
@@ -1792,11 +1825,11 @@
         <v>116</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="17">
         <v>130</v>
@@ -1816,11 +1849,11 @@
         <v>118</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H13" s="17">
         <v>130</v>
@@ -1840,11 +1873,11 @@
         <v>118</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="17">
         <v>130</v>
@@ -1866,11 +1899,11 @@
         <v>118</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="17">
         <v>130</v>
@@ -1890,11 +1923,11 @@
         <v>116</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="17">
         <v>140</v>
@@ -1914,11 +1947,11 @@
         <v>118</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="17">
         <v>140</v>
@@ -1938,11 +1971,11 @@
         <v>116</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="17">
         <v>140</v>
@@ -1966,7 +1999,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H19" s="17">
         <v>140</v>
@@ -1986,11 +2019,11 @@
         <v>119</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H20" s="17">
         <v>140</v>
@@ -2012,13 +2045,13 @@
         <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" s="17">
         <v>500</v>
@@ -2038,11 +2071,11 @@
         <v>118</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="17">
         <v>150</v>
@@ -2062,11 +2095,11 @@
         <v>118</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="17">
         <v>150</v>
@@ -2086,11 +2119,11 @@
         <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="17">
         <v>150</v>
@@ -2110,11 +2143,11 @@
         <v>119</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="17">
         <v>150</v>
@@ -2134,13 +2167,13 @@
         <v>120</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="17">
         <v>700</v>
@@ -2162,11 +2195,11 @@
         <v>116</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="26">
         <v>120</v>
@@ -2186,11 +2219,11 @@
         <v>118</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H28" s="26">
         <v>120</v>
@@ -2210,11 +2243,11 @@
         <v>119</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H29" s="26">
         <v>120</v>
@@ -2234,11 +2267,11 @@
         <v>119</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" s="26">
         <v>120</v>
@@ -2258,11 +2291,11 @@
         <v>118</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="26">
         <v>120</v>
@@ -2284,11 +2317,11 @@
         <v>116</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H32" s="26">
         <v>120</v>
@@ -2308,11 +2341,11 @@
         <v>116</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H33" s="26">
         <v>130</v>
@@ -2332,11 +2365,11 @@
         <v>118</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H34" s="26">
         <v>130</v>
@@ -2358,11 +2391,11 @@
         <v>116</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H35" s="26">
         <v>130</v>
@@ -2382,13 +2415,13 @@
         <v>118</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="H36" s="26">
         <v>500</v>
@@ -2410,11 +2443,11 @@
         <v>119</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="H37" s="26">
         <v>150</v>
@@ -2430,17 +2463,17 @@
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H38" s="26">
         <v>150</v>
@@ -2460,11 +2493,11 @@
         <v>119</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H39" s="26">
         <v>150</v>
@@ -2484,11 +2517,11 @@
         <v>118</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H40" s="26">
         <v>160</v>
@@ -2508,13 +2541,13 @@
         <v>120</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>111</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H41" s="26">
         <v>600</v>
@@ -2540,7 +2573,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="26">
         <v>160</v>
@@ -2560,11 +2593,11 @@
         <v>118</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H43" s="26">
         <v>170</v>
@@ -2584,13 +2617,13 @@
         <v>119</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H44" s="26">
         <v>170</v>
@@ -2610,11 +2643,11 @@
         <v>116</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H45" s="26">
         <v>170</v>
@@ -2634,13 +2667,13 @@
         <v>118</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>112</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H46" s="26">
         <v>700</v>
@@ -2660,11 +2693,11 @@
         <v>118</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H47" s="26">
         <v>180</v>
@@ -2684,11 +2717,11 @@
         <v>120</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H48" s="26">
         <v>180</v>
@@ -2708,11 +2741,11 @@
         <v>119</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H49" s="26">
         <v>180</v>
@@ -2732,11 +2765,11 @@
         <v>117</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H50" s="26">
         <v>180</v>
@@ -2756,13 +2789,13 @@
         <v>120</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>113</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H51" s="26">
         <v>800</v>
@@ -2782,11 +2815,11 @@
         <v>119</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H52" s="26">
         <v>200</v>
@@ -2806,11 +2839,11 @@
         <v>118</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H53" s="26">
         <v>200</v>
@@ -2830,11 +2863,11 @@
         <v>119</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H54" s="26">
         <v>225</v>
@@ -2854,11 +2887,11 @@
         <v>119</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="25" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="H55" s="26">
         <v>225</v>
@@ -2878,13 +2911,13 @@
         <v>120</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H56" s="26">
         <v>1000</v>
@@ -2904,11 +2937,11 @@
         <v>118</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H57" s="18">
         <v>250</v>
@@ -2927,11 +2960,11 @@
         <v>118</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="H58" s="18">
         <v>250</v>
@@ -2950,11 +2983,11 @@
         <v>116</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H59" s="18">
         <v>275</v>
@@ -2973,11 +3006,11 @@
         <v>119</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H60" s="18">
         <v>275</v>
@@ -2996,11 +3029,11 @@
         <v>118</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H61" s="18">
         <v>275</v>
@@ -3023,7 +3056,7 @@
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H62" s="18">
         <v>300</v>
@@ -3042,11 +3075,11 @@
         <v>118</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H63" s="18">
         <v>300</v>
@@ -3065,11 +3098,11 @@
         <v>119</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H64" s="18">
         <v>325</v>
@@ -3088,11 +3121,11 @@
         <v>118</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H65" s="18">
         <v>325</v>
@@ -3111,13 +3144,13 @@
         <v>119</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H66" s="18">
         <v>1200</v>
@@ -3136,11 +3169,11 @@
         <v>118</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H67" s="18">
         <v>325</v>
@@ -3159,11 +3192,11 @@
         <v>119</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H68" s="18">
         <v>325</v>
@@ -3213,11 +3246,11 @@
         <v>118</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H70" s="18">
         <v>350</v>
@@ -3236,13 +3269,13 @@
         <v>119</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>114</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="H71" s="18">
         <v>1000</v>
@@ -3261,11 +3294,11 @@
         <v>116</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H72" s="18">
         <v>450</v>
@@ -3284,11 +3317,11 @@
         <v>118</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="H73" s="18">
         <v>450</v>
@@ -3307,11 +3340,11 @@
         <v>116</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15" t="s">
-        <v>151</v>
+        <v>325</v>
       </c>
       <c r="H74" s="18">
         <v>450</v>
@@ -3330,11 +3363,11 @@
         <v>119</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="14"/>
       <c r="G75" s="15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H75" s="18">
         <v>450</v>
@@ -3353,13 +3386,13 @@
         <v>118</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="H76" s="18">
         <v>1300</v>
@@ -3378,11 +3411,11 @@
         <v>116</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H77" s="18">
         <v>450</v>
@@ -3401,11 +3434,11 @@
         <v>119</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H78" s="18">
         <v>450</v>
@@ -3424,11 +3457,11 @@
         <v>116</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H79" s="18">
         <v>450</v>
@@ -3447,11 +3480,11 @@
         <v>117</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="15" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="H80" s="18">
         <v>450</v>
@@ -3470,13 +3503,13 @@
         <v>118</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="H81" s="18">
         <v>1800</v>
@@ -3495,11 +3528,11 @@
         <v>120</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="H82" s="18">
         <v>500</v>
@@ -3518,11 +3551,11 @@
         <v>119</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H83" s="18">
         <v>500</v>
@@ -3541,11 +3574,11 @@
         <v>116</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="H84" s="18">
         <v>500</v>
@@ -3564,11 +3597,11 @@
         <v>118</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H85" s="18">
         <v>500</v>
@@ -3587,11 +3620,11 @@
         <v>116</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="15" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H86" s="18">
         <v>500</v>
@@ -3610,11 +3643,11 @@
         <v>116</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="15" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H87" s="18">
         <v>500</v>
@@ -3633,11 +3666,11 @@
         <v>116</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="15" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H88" s="18">
         <v>500</v>
@@ -3656,11 +3689,11 @@
         <v>119</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="H89" s="18">
         <v>500</v>
@@ -3679,11 +3712,11 @@
         <v>116</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="15" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="H90" s="18">
         <v>500</v>
@@ -3702,13 +3735,13 @@
         <v>120</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="H91" s="18">
         <v>1500</v>
@@ -3727,11 +3760,11 @@
         <v>119</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="H92" s="18">
         <v>550</v>
@@ -3750,11 +3783,11 @@
         <v>116</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H93" s="18">
         <v>550</v>
@@ -3773,11 +3806,11 @@
         <v>118</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="15" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="H94" s="18">
         <v>550</v>
@@ -3796,11 +3829,11 @@
         <v>119</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H95" s="18">
         <v>550</v>
@@ -3819,13 +3852,13 @@
         <v>118</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="H96" s="18">
         <v>2000</v>
@@ -3844,11 +3877,11 @@
         <v>116</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H97" s="18">
         <v>600</v>
@@ -3867,11 +3900,11 @@
         <v>116</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H98" s="18">
         <v>600</v>
@@ -3890,11 +3923,11 @@
         <v>116</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="15" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H99" s="18">
         <v>600</v>
@@ -3913,11 +3946,11 @@
         <v>118</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H100" s="18">
         <v>600</v>
@@ -3936,13 +3969,13 @@
         <v>120</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="H101" s="18">
         <v>2500</v>
@@ -3961,13 +3994,13 @@
         <v>121</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="H102" s="18">
         <v>10</v>
@@ -4000,7 +4033,7 @@
         <v>128</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.5">
@@ -4017,7 +4050,7 @@
         <v>133</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.5">
@@ -4034,7 +4067,7 @@
         <v>134</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
